--- a/legislator/property/output/normal/費鴻泰_2011-11-22_財產申報表_tmp1afe1.xlsx
+++ b/legislator/property/output/normal/費鴻泰_2011-11-22_財產申報表_tmp1afe1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="95">
   <si>
     <t>土地坐落</t>
   </si>
@@ -252,6 +252,15 @@
     <t>total</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
     <t>互盛</t>
   </si>
   <si>
@@ -268,6 +277,9 @@
   </si>
   <si>
     <t>怡星資訊股份有限公司</t>
+  </si>
+  <si>
+    <t>2011-11-22</t>
   </si>
   <si>
     <t>名稱</t>
@@ -1509,13 +1521,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>71</v>
       </c>
@@ -1534,13 +1546,22 @@
       <c r="G1" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>69</v>
@@ -1557,13 +1578,22 @@
       <c r="G2" s="2">
         <v>150150</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>82</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>17</v>
@@ -1580,13 +1610,22 @@
       <c r="G3" s="2">
         <v>100000</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>83</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>17</v>
@@ -1603,13 +1642,22 @@
       <c r="G4" s="2">
         <v>200000</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>84</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>17</v>
@@ -1626,13 +1674,22 @@
       <c r="G5" s="2">
         <v>227970</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>85</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>17</v>
@@ -1649,13 +1706,22 @@
       <c r="G6" s="2">
         <v>440000</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>86</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>16</v>
@@ -1671,6 +1737,15 @@
       </c>
       <c r="G7" s="2">
         <v>980000</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1365</v>
       </c>
     </row>
   </sheetData>
@@ -1688,22 +1763,22 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>55</v>
@@ -1714,13 +1789,13 @@
         <v>96</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E2" s="2">
         <v>2931.6</v>
@@ -1740,16 +1815,16 @@
         <v>97</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>70</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F3" s="2">
         <v>7.31</v>
@@ -1766,13 +1841,13 @@
         <v>98</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E4" s="2">
         <v>13567.3</v>
@@ -1792,13 +1867,13 @@
         <v>99</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E5" s="2">
         <v>20512.8</v>

--- a/legislator/property/output/normal/費鴻泰_2011-11-22_財產申報表_tmp1afe1.xlsx
+++ b/legislator/property/output/normal/費鴻泰_2011-11-22_財產申報表_tmp1afe1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="97">
   <si>
     <t>土地坐落</t>
   </si>
@@ -252,6 +252,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -277,6 +280,9 @@
   </si>
   <si>
     <t>怡星資訊股份有限公司</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2011-11-22</t>
@@ -1521,13 +1527,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>71</v>
       </c>
@@ -1555,13 +1561,16 @@
       <c r="J1" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>69</v>
@@ -1579,21 +1588,24 @@
         <v>150150</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="2">
+      <c r="K2" s="2">
         <v>1365</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>82</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>17</v>
@@ -1611,21 +1623,24 @@
         <v>100000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="2">
+      <c r="K3" s="2">
         <v>1365</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>83</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>17</v>
@@ -1643,21 +1658,24 @@
         <v>200000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="2">
+      <c r="K4" s="2">
         <v>1365</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>84</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>17</v>
@@ -1675,21 +1693,24 @@
         <v>227970</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="2">
+      <c r="K5" s="2">
         <v>1365</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>85</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>17</v>
@@ -1707,21 +1728,24 @@
         <v>440000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="2">
+      <c r="K6" s="2">
         <v>1365</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>86</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>16</v>
@@ -1739,12 +1763,15 @@
         <v>980000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>1365</v>
       </c>
     </row>
@@ -1763,22 +1790,22 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>55</v>
@@ -1789,13 +1816,13 @@
         <v>96</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E2" s="2">
         <v>2931.6</v>
@@ -1815,16 +1842,16 @@
         <v>97</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>70</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F3" s="2">
         <v>7.31</v>
@@ -1841,13 +1868,13 @@
         <v>98</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E4" s="2">
         <v>13567.3</v>
@@ -1867,13 +1894,13 @@
         <v>99</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E5" s="2">
         <v>20512.8</v>

--- a/legislator/property/output/normal/費鴻泰_2011-11-22_財產申報表_tmp1afe1.xlsx
+++ b/legislator/property/output/normal/費鴻泰_2011-11-22_財產申報表_tmp1afe1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="102">
   <si>
     <t>土地坐落</t>
   </si>
@@ -255,6 +255,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -264,6 +267,12 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>互盛</t>
   </si>
   <si>
@@ -285,7 +294,13 @@
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2011-11-22</t>
+  </si>
+  <si>
+    <t>tmp1afe1</t>
   </si>
   <si>
     <t>名稱</t>
@@ -1527,13 +1542,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>71</v>
       </c>
@@ -1564,13 +1579,22 @@
       <c r="K1" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>69</v>
@@ -1588,24 +1612,33 @@
         <v>150150</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="2">
+      <c r="L2" s="2">
         <v>1365</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="M2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="N2" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>82</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>17</v>
@@ -1623,24 +1656,33 @@
         <v>100000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="2">
+      <c r="L3" s="2">
         <v>1365</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="M3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="N3" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>83</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>17</v>
@@ -1658,24 +1700,33 @@
         <v>200000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="2">
+      <c r="L4" s="2">
         <v>1365</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="M4" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="N4" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>84</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>17</v>
@@ -1693,24 +1744,33 @@
         <v>227970</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="2">
+      <c r="L5" s="2">
         <v>1365</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="M5" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="N5" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>85</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>17</v>
@@ -1728,24 +1788,33 @@
         <v>440000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="2">
+      <c r="L6" s="2">
         <v>1365</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="M6" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="N6" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>86</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>16</v>
@@ -1763,16 +1832,25 @@
         <v>980000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J7" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>1365</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="N7" s="2">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1790,22 +1868,22 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>55</v>
@@ -1816,13 +1894,13 @@
         <v>96</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E2" s="2">
         <v>2931.6</v>
@@ -1842,16 +1920,16 @@
         <v>97</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>70</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="F3" s="2">
         <v>7.31</v>
@@ -1868,13 +1946,13 @@
         <v>98</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E4" s="2">
         <v>13567.3</v>
@@ -1894,13 +1972,13 @@
         <v>99</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E5" s="2">
         <v>20512.8</v>

--- a/legislator/property/output/normal/費鴻泰_2011-11-22_財產申報表_tmp1afe1.xlsx
+++ b/legislator/property/output/normal/費鴻泰_2011-11-22_財產申報表_tmp1afe1.xlsx
@@ -19,9 +19,120 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="102">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="107">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>臺北市松山區吳興段二小段05750000地號</t>
+  </si>
+  <si>
+    <t>臺北市内湖區西湖段一小段00520012地號</t>
+  </si>
+  <si>
+    <t>臺北市松山區延吉街段三小段08400000地號</t>
+  </si>
+  <si>
+    <t>臺北市内湖區西湖段四小段00410000地號</t>
+  </si>
+  <si>
+    <t>臺北市內湖區西湖段四小段00410000地號</t>
+  </si>
+  <si>
+    <t>10000分之154</t>
+  </si>
+  <si>
+    <t>10000分之195</t>
+  </si>
+  <si>
+    <t>85659分之7217</t>
+  </si>
+  <si>
+    <t>20000分之263</t>
+  </si>
+  <si>
+    <t>費鴻泰</t>
+  </si>
+  <si>
+    <t>王怡心</t>
+  </si>
+  <si>
+    <t>75年10月30日</t>
+  </si>
+  <si>
+    <t>79年09月15日</t>
+  </si>
+  <si>
+    <t>87年12月10日</t>
+  </si>
+  <si>
+    <t>96年06月20日</t>
+  </si>
+  <si>
+    <t>rm貝賣</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>貝賈</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2011-11-22</t>
+  </si>
+  <si>
+    <t>tmp1afe1</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -42,85 +153,25 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>臺北市松山區吳興段二小段 0575-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市内湖區西湖段一小段 0052-0012 地號</t>
-  </si>
-  <si>
-    <t>臺北市松山區延吉街段三小段 0840-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市内湖區西湖段四小段 0041-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市內湖區西湖段四小段 0041-0000 地號</t>
-  </si>
-  <si>
-    <t>10000分之 154</t>
-  </si>
-  <si>
-    <t>10000分之 195</t>
-  </si>
-  <si>
-    <t>85659分之 7217</t>
-  </si>
-  <si>
-    <t>20000分之 263</t>
-  </si>
-  <si>
-    <t>費鴻泰</t>
-  </si>
-  <si>
-    <t>王怡心</t>
-  </si>
-  <si>
-    <t>75年10月 30日</t>
-  </si>
-  <si>
-    <t>79年09月 15日</t>
-  </si>
-  <si>
-    <t>87年12月 10日</t>
-  </si>
-  <si>
-    <t>96年06月 20日</t>
-  </si>
-  <si>
-    <t>rm 貝賣</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>貝賈</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>臺北市松山區吳興段二小段 01198-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市内湖區西湖段一小段 04816-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市内湖區西湖段一小段 04880-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市松山區延吉段三小段 03504-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市內湖區西湖段四小段 01312-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市内湖區西湖段四小段 01312-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市内湖區西湖段四小段 01316-000 建號</t>
+    <t>臺北市松山區吳興段二小段01198000建號</t>
+  </si>
+  <si>
+    <t>臺北市内湖區西湖段一小段04816000建號</t>
+  </si>
+  <si>
+    <t>臺北市内湖區西湖段一小段04880000建號</t>
+  </si>
+  <si>
+    <t>臺北市松山區延吉段三小段03504000建號</t>
+  </si>
+  <si>
+    <t>臺北市內湖區西湖段四小段01312000建號</t>
+  </si>
+  <si>
+    <t>臺北市内湖區西湖段四小段01312000建號</t>
+  </si>
+  <si>
+    <t>臺北市内湖區西湖段四小段01316000建號</t>
   </si>
   <si>
     <t>臺北市内湖區西湖段四小段</t>
@@ -141,13 +192,13 @@
     <t>王怡心.</t>
   </si>
   <si>
-    <t>96年06月 20日.</t>
+    <t>96年06月20日.</t>
   </si>
   <si>
     <t>96年06月</t>
   </si>
   <si>
-    <t>CEXJ-S^ 貝賣</t>
+    <t>CEXJS貝賣</t>
   </si>
   <si>
     <t>廠牌型號</t>
@@ -159,7 +210,7 @@
     <t>所有人</t>
   </si>
   <si>
-    <t>馬自達T ribute</t>
+    <t>馬自達Tribute</t>
   </si>
   <si>
     <t>馬自達ISAMU</t>
@@ -168,10 +219,10 @@
     <t>.王怡心</t>
   </si>
   <si>
-    <t>92年09月 15曰</t>
-  </si>
-  <si>
-    <t>93年05月 20日</t>
+    <t>92年09月15曰</t>
+  </si>
+  <si>
+    <t>93年05月20日</t>
   </si>
   <si>
     <t>貝賣</t>
@@ -234,12 +285,6 @@
     <t>費〇德</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
-  </si>
-  <si>
     <t>quantity</t>
   </si>
   <si>
@@ -252,27 +297,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>互盛</t>
   </si>
   <si>
@@ -294,15 +318,6 @@
     <t>stock</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2011-11-22</t>
-  </si>
-  <si>
-    <t>tmp1afe1</t>
-  </si>
-  <si>
     <t>名稱</t>
   </si>
   <si>
@@ -321,10 +336,10 @@
     <t>友邦巨人基金</t>
   </si>
   <si>
-    <t>友邦證券投資 信託股份有限 公司</t>
-  </si>
-  <si>
-    <t>21，495.90</t>
+    <t>友邦證券投資信託股份有限公司</t>
+  </si>
+  <si>
+    <t>21495.90</t>
   </si>
 </sst>
 </file>
@@ -683,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,135 +726,261 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>1927</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1365</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>3223</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1365</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>436</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1365</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O4" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>2807.04</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H5" s="2">
         <v>17350000</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1365</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O5" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
         <v>2807.04</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H6" s="2">
         <v>17350000</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1365</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O6" s="2">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -857,25 +998,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -883,25 +1024,25 @@
         <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2">
         <v>91.86</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -909,25 +1050,25 @@
         <v>24</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="C3" s="2">
         <v>161.1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -935,25 +1076,25 @@
         <v>25</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="C4" s="2">
         <v>802.83</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -961,25 +1102,25 @@
         <v>26</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C5" s="2">
         <v>73.89</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -987,22 +1128,22 @@
         <v>27</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C6" s="2">
         <v>244.42</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="H6" s="2">
         <v>14350000</v>
@@ -1013,22 +1154,22 @@
         <v>28</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C7" s="2">
         <v>244.42</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H7" s="2">
         <v>14350000</v>
@@ -1039,22 +1180,22 @@
         <v>29</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C8" s="2">
         <v>5964.77</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H8" s="2">
         <v>3000000</v>
@@ -1065,22 +1206,22 @@
         <v>30</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C9" s="2">
         <v>5964.77</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H9" s="2">
         <v>3000000</v>
@@ -1101,22 +1242,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1124,22 +1265,22 @@
         <v>42</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="C2" s="2">
         <v>3000</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1147,22 +1288,22 @@
         <v>43</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="C3" s="2">
         <v>1600</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1180,19 +1321,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1200,16 +1341,16 @@
         <v>57</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F2" s="2">
         <v>2208563</v>
@@ -1220,16 +1361,16 @@
         <v>58</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F3" s="2">
         <v>369</v>
@@ -1240,16 +1381,16 @@
         <v>59</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F4" s="2">
         <v>744348</v>
@@ -1260,16 +1401,16 @@
         <v>60</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F5" s="2">
         <v>2000000</v>
@@ -1280,16 +1421,16 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F6" s="2">
         <v>147345</v>
@@ -1300,16 +1441,16 @@
         <v>62</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F7" s="2">
         <v>5888</v>
@@ -1320,16 +1461,16 @@
         <v>63</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F8" s="2">
         <v>240188</v>
@@ -1340,16 +1481,16 @@
         <v>64</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="F9" s="2">
         <v>521452</v>
@@ -1360,16 +1501,16 @@
         <v>65</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F10" s="2">
         <v>172497</v>
@@ -1380,16 +1521,16 @@
         <v>66</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F11" s="2">
         <v>2000000</v>
@@ -1400,16 +1541,16 @@
         <v>67</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="F12" s="2">
         <v>21053</v>
@@ -1420,16 +1561,16 @@
         <v>68</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="F13" s="2">
         <v>500000</v>
@@ -1440,16 +1581,16 @@
         <v>69</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F14" s="2">
         <v>8955</v>
@@ -1460,16 +1601,16 @@
         <v>71</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F15" s="2">
         <v>6481204</v>
@@ -1480,16 +1621,16 @@
         <v>72</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F16" s="2">
         <v>2219660</v>
@@ -1500,16 +1641,16 @@
         <v>73</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F17" s="2">
         <v>300179</v>
@@ -1520,16 +1661,16 @@
         <v>74</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="F18" s="2">
         <v>5511</v>
@@ -1550,43 +1691,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1594,10 +1735,10 @@
         <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="D2" s="2">
         <v>15015</v>
@@ -1606,28 +1747,28 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="G2" s="2">
         <v>150150</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L2" s="2">
         <v>1365</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="N2" s="2">
         <v>81</v>
@@ -1638,10 +1779,10 @@
         <v>82</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D3" s="2">
         <v>10000</v>
@@ -1650,28 +1791,28 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="G3" s="2">
         <v>100000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L3" s="2">
         <v>1365</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="N3" s="2">
         <v>82</v>
@@ -1682,10 +1823,10 @@
         <v>83</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D4" s="2">
         <v>20000</v>
@@ -1694,28 +1835,28 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="G4" s="2">
         <v>200000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L4" s="2">
         <v>1365</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="N4" s="2">
         <v>83</v>
@@ -1726,10 +1867,10 @@
         <v>84</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D5" s="2">
         <v>22797</v>
@@ -1738,28 +1879,28 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="G5" s="2">
         <v>227970</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L5" s="2">
         <v>1365</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="N5" s="2">
         <v>84</v>
@@ -1770,10 +1911,10 @@
         <v>85</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D6" s="2">
         <v>44000</v>
@@ -1782,28 +1923,28 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="G6" s="2">
         <v>440000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L6" s="2">
         <v>1365</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="N6" s="2">
         <v>85</v>
@@ -1814,10 +1955,10 @@
         <v>86</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D7" s="2">
         <v>98000</v>
@@ -1826,28 +1967,28 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="G7" s="2">
         <v>980000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L7" s="2">
         <v>1365</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="N7" s="2">
         <v>86</v>
@@ -1868,25 +2009,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1894,13 +2035,13 @@
         <v>96</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="E2" s="2">
         <v>2931.6</v>
@@ -1909,7 +2050,7 @@
         <v>7.31</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="H2" s="2">
         <v>21430</v>
@@ -1920,22 +2061,22 @@
         <v>97</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F3" s="2">
         <v>7.31</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="H3" s="2">
         <v>157135.03</v>
@@ -1946,13 +2087,13 @@
         <v>98</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="E4" s="2">
         <v>13567.3</v>
@@ -1961,7 +2102,7 @@
         <v>7.31</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="H4" s="2">
         <v>99176.96</v>
@@ -1972,13 +2113,13 @@
         <v>99</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="E5" s="2">
         <v>20512.8</v>
@@ -1987,7 +2128,7 @@
         <v>7.31</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="H5" s="2">
         <v>149948.57</v>

--- a/legislator/property/output/normal/費鴻泰_2011-11-22_財產申報表_tmp1afe1.xlsx
+++ b/legislator/property/output/normal/費鴻泰_2011-11-22_財產申報表_tmp1afe1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="85">
   <si>
     <t>name</t>
   </si>
@@ -63,7 +63,10 @@
     <t>index</t>
   </si>
   <si>
-    <t>臺北市松山區吳興段二小段05750000地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>臺北市内湖區西湖段一小段00520012地號</t>
@@ -78,9 +81,6 @@
     <t>臺北市內湖區西湖段四小段00410000地號</t>
   </si>
   <si>
-    <t>10000分之154</t>
-  </si>
-  <si>
     <t>10000分之195</t>
   </si>
   <si>
@@ -90,72 +90,51 @@
     <t>20000分之263</t>
   </si>
   <si>
+    <t>王怡心</t>
+  </si>
+  <si>
     <t>費鴻泰</t>
   </si>
   <si>
-    <t>王怡心</t>
+    <t>79年09月15日</t>
+  </si>
+  <si>
+    <t>87年12月10日</t>
+  </si>
+  <si>
+    <t>96年06月20日</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>貝賈</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2011-11-22</t>
+  </si>
+  <si>
+    <t>tmp1afe1</t>
+  </si>
+  <si>
+    <t>臺北市松山區吳興段二小段01198000建號</t>
+  </si>
+  <si>
+    <t>全部</t>
   </si>
   <si>
     <t>75年10月30日</t>
   </si>
   <si>
-    <t>79年09月15日</t>
-  </si>
-  <si>
-    <t>87年12月10日</t>
-  </si>
-  <si>
-    <t>96年06月20日</t>
-  </si>
-  <si>
-    <t>rm貝賣</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>貝賈</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>land</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2011-11-22</t>
-  </si>
-  <si>
-    <t>tmp1afe1</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍（持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得)時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
-    <t>臺北市松山區吳興段二小段01198000建號</t>
-  </si>
-  <si>
     <t>臺北市内湖區西湖段一小段04816000建號</t>
   </si>
   <si>
@@ -177,9 +156,6 @@
     <t>臺北市内湖區西湖段四小段</t>
   </si>
   <si>
-    <t>全部</t>
-  </si>
-  <si>
     <t>22分之1</t>
   </si>
   <si>
@@ -201,48 +177,33 @@
     <t>CEXJS貝賣</t>
   </si>
   <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
     <t>馬自達Tribute</t>
   </si>
   <si>
+    <t>.王怡心</t>
+  </si>
+  <si>
+    <t>92年09月15曰</t>
+  </si>
+  <si>
+    <t>貝賣</t>
+  </si>
+  <si>
     <t>馬自達ISAMU</t>
   </si>
   <si>
-    <t>.王怡心</t>
-  </si>
-  <si>
-    <t>92年09月15曰</t>
-  </si>
-  <si>
     <t>93年05月20日</t>
   </si>
   <si>
-    <t>貝賣</t>
-  </si>
-  <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
     <t>台北富邦商業銀行</t>
   </si>
   <si>
+    <t>活期儲蓄存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
     <t>中華郵政股份有限公司</t>
   </si>
   <si>
@@ -264,18 +225,12 @@
     <t>元大商業銀行</t>
   </si>
   <si>
-    <t>活期儲蓄存款</t>
-  </si>
-  <si>
     <t>支票存款</t>
   </si>
   <si>
     <t>定期存款</t>
   </si>
   <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
     <t>EE怡心</t>
   </si>
   <si>
@@ -294,12 +249,6 @@
     <t>currency</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>互盛</t>
-  </si>
-  <si>
     <t>皇旗資訊</t>
   </si>
   <si>
@@ -316,21 +265,6 @@
   </si>
   <si>
     <t>stock</t>
-  </si>
-  <si>
-    <t>名稱</t>
-  </si>
-  <si>
-    <t>受託投資機構</t>
-  </si>
-  <si>
-    <t>單位數</t>
-  </si>
-  <si>
-    <t>票面價額(單位淨值）</t>
-  </si>
-  <si>
-    <t>外幣幣別</t>
   </si>
   <si>
     <t>友邦巨人基金</t>
@@ -698,13 +632,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -747,19 +681,25 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>1927</v>
+        <v>3223</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>23</v>
@@ -768,92 +708,104 @@
         <v>25</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="L2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" s="2">
         <v>1365</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O2" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>15</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.0195</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>62.8485</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>3223</v>
+        <v>436</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="L3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M3" s="2">
         <v>1365</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O3" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>16</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.084252676309553</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>36.7341668709651</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>436</v>
+        <v>2807.04</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>24</v>
@@ -862,39 +814,45 @@
         <v>27</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="2">
+        <v>17350000</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="L4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M4" s="2">
         <v>1365</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O4" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>17</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.01315</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>36.912576</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2">
         <v>2807.04</v>
@@ -906,81 +864,40 @@
         <v>23</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H5" s="2">
         <v>17350000</v>
       </c>
       <c r="I5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="L5" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M5" s="2">
         <v>1365</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O5" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="1">
         <v>18</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="2">
-        <v>2807.04</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="2">
-        <v>17350000</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M6" s="2">
-        <v>1365</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O6" s="2">
-        <v>18</v>
+      <c r="P5" s="2">
+        <v>0.01315</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>36.912576</v>
       </c>
     </row>
   </sheetData>
@@ -990,7 +907,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -998,39 +915,39 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="1">
+        <v>91.86</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2">
-        <v>91.86</v>
+        <v>161.1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>23</v>
@@ -1039,111 +956,111 @@
         <v>25</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="2">
+        <v>802.83</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="2">
-        <v>161.1</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C4" s="2">
-        <v>802.83</v>
+        <v>73.89</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C5" s="2">
-        <v>73.89</v>
+        <v>244.42</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>32</v>
+        <v>51</v>
+      </c>
+      <c r="H5" s="2">
+        <v>14350000</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C6" s="2">
         <v>244.42</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="H6" s="2">
         <v>14350000</v>
@@ -1151,79 +1068,53 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C7" s="2">
-        <v>244.42</v>
+        <v>5964.77</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H7" s="2">
-        <v>14350000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C8" s="2">
         <v>5964.77</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="H8" s="2">
-        <v>3000000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1">
-        <v>30</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="2">
-        <v>5964.77</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="2">
         <v>3000000</v>
       </c>
     </row>
@@ -1234,7 +1125,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1242,68 +1133,45 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
+      </c>
+      <c r="C1" s="1">
+        <v>3000</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C2" s="2">
-        <v>3000</v>
+        <v>1600</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>43</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1600</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F3" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1313,7 +1181,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1321,358 +1189,338 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>72</v>
+        <v>24</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2208563</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F2" s="2">
-        <v>2208563</v>
+        <v>369</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F3" s="2">
-        <v>369</v>
+        <v>744348</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F4" s="2">
-        <v>744348</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F5" s="2">
-        <v>2000000</v>
+        <v>147345</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F6" s="2">
-        <v>147345</v>
+        <v>5888</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F7" s="2">
-        <v>5888</v>
+        <v>240188</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="F8" s="2">
-        <v>240188</v>
+        <v>521452</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="F9" s="2">
-        <v>521452</v>
+        <v>172497</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F10" s="2">
-        <v>172497</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
+        <v>67</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="C11" s="2" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="F11" s="2">
-        <v>2000000</v>
+        <v>21053</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="F12" s="2">
-        <v>21053</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="F13" s="2">
-        <v>500000</v>
+        <v>8955</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F14" s="2">
-        <v>8955</v>
+        <v>6481204</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F15" s="2">
-        <v>6481204</v>
+        <v>2219660</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F16" s="2">
-        <v>2219660</v>
+        <v>300179</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="F17" s="2">
-        <v>300179</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="1">
-        <v>74</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F18" s="2">
         <v>5511</v>
       </c>
     </row>
@@ -1683,7 +1531,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1697,16 +1545,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -1732,265 +1580,221 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D2" s="2">
-        <v>15015</v>
+        <v>10000</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="G2" s="2">
-        <v>150150</v>
+        <v>100000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L2" s="2">
         <v>1365</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N2" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="2">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="G3" s="2">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L3" s="2">
         <v>1365</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N3" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" s="2">
-        <v>20000</v>
+        <v>22797</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="G4" s="2">
-        <v>200000</v>
+        <v>227970</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L4" s="2">
         <v>1365</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N4" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" s="2">
-        <v>22797</v>
+        <v>44000</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="G5" s="2">
-        <v>227970</v>
+        <v>440000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L5" s="2">
         <v>1365</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N5" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="2">
-        <v>44000</v>
+        <v>98000</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="G6" s="2">
-        <v>440000</v>
+        <v>980000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L6" s="2">
         <v>1365</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N6" s="2">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="1">
-        <v>86</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="2">
-        <v>98000</v>
-      </c>
-      <c r="E7" s="2">
-        <v>10</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G7" s="2">
-        <v>980000</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L7" s="2">
-        <v>1365</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N7" s="2">
         <v>86</v>
       </c>
     </row>
@@ -2001,7 +1805,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2009,128 +1813,102 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>102</v>
+        <v>83</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2931.6</v>
+      </c>
+      <c r="F1" s="1">
+        <v>7.31</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>72</v>
+        <v>60</v>
+      </c>
+      <c r="H1" s="1">
+        <v>21430</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E2" s="2">
-        <v>2931.6</v>
+        <v>83</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="F2" s="2">
         <v>7.31</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="H2" s="2">
-        <v>21430</v>
+        <v>157135.03</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>106</v>
+        <v>83</v>
+      </c>
+      <c r="E3" s="2">
+        <v>13567.3</v>
       </c>
       <c r="F3" s="2">
         <v>7.31</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="H3" s="2">
-        <v>157135.03</v>
+        <v>99176.96</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="E4" s="2">
-        <v>13567.3</v>
+        <v>20512.8</v>
       </c>
       <c r="F4" s="2">
         <v>7.31</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="H4" s="2">
-        <v>99176.96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>99</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E5" s="2">
-        <v>20512.8</v>
-      </c>
-      <c r="F5" s="2">
-        <v>7.31</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H5" s="2">
         <v>149948.57</v>
       </c>
     </row>

--- a/legislator/property/output/normal/費鴻泰_2011-11-22_財產申報表_tmp1afe1.xlsx
+++ b/legislator/property/output/normal/費鴻泰_2011-11-22_財產申報表_tmp1afe1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="86">
   <si>
     <t>name</t>
   </si>
@@ -69,6 +69,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>臺北市松山區吳興段二小段05750000地號</t>
+  </si>
+  <si>
     <t>臺北市内湖區西湖段一小段00520012地號</t>
   </si>
   <si>
@@ -81,6 +84,9 @@
     <t>臺北市內湖區西湖段四小段00410000地號</t>
   </si>
   <si>
+    <t>10000分之154</t>
+  </si>
+  <si>
     <t>10000分之195</t>
   </si>
   <si>
@@ -90,10 +96,13 @@
     <t>20000分之263</t>
   </si>
   <si>
+    <t>費鴻泰</t>
+  </si>
+  <si>
     <t>王怡心</t>
   </si>
   <si>
-    <t>費鴻泰</t>
+    <t>75年10月30日</t>
   </si>
   <si>
     <t>79年09月15日</t>
@@ -105,6 +114,9 @@
     <t>96年06月20日</t>
   </si>
   <si>
+    <t>rm貝賣</t>
+  </si>
+  <si>
     <t>買賣</t>
   </si>
   <si>
@@ -129,33 +141,27 @@
     <t>臺北市松山區吳興段二小段01198000建號</t>
   </si>
   <si>
+    <t>臺北市内湖區西湖段一小段04816000建號</t>
+  </si>
+  <si>
+    <t>臺北市内湖區西湖段一小段04880000建號</t>
+  </si>
+  <si>
+    <t>臺北市松山區延吉段三小段03504000建號</t>
+  </si>
+  <si>
+    <t>臺北市內湖區西湖段四小段01312000建號</t>
+  </si>
+  <si>
+    <t>臺北市内湖區西湖段四小段01312000建號</t>
+  </si>
+  <si>
+    <t>臺北市内湖區西湖段四小段01316000建號</t>
+  </si>
+  <si>
     <t>全部</t>
   </si>
   <si>
-    <t>75年10月30日</t>
-  </si>
-  <si>
-    <t>臺北市内湖區西湖段一小段04816000建號</t>
-  </si>
-  <si>
-    <t>臺北市内湖區西湖段一小段04880000建號</t>
-  </si>
-  <si>
-    <t>臺北市松山區延吉段三小段03504000建號</t>
-  </si>
-  <si>
-    <t>臺北市內湖區西湖段四小段01312000建號</t>
-  </si>
-  <si>
-    <t>臺北市内湖區西湖段四小段01312000建號</t>
-  </si>
-  <si>
-    <t>臺北市内湖區西湖段四小段01316000建號</t>
-  </si>
-  <si>
-    <t>臺北市内湖區西湖段四小段</t>
-  </si>
-  <si>
     <t>22分之1</t>
   </si>
   <si>
@@ -171,12 +177,6 @@
     <t>96年06月20日.</t>
   </si>
   <si>
-    <t>96年06月</t>
-  </si>
-  <si>
-    <t>CEXJS貝賣</t>
-  </si>
-  <si>
     <t>馬自達Tribute</t>
   </si>
   <si>
@@ -247,6 +247,9 @@
   </si>
   <si>
     <t>currency</t>
+  </si>
+  <si>
+    <t>互盛</t>
   </si>
   <si>
     <t>皇旗資訊</t>
@@ -632,7 +635,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -690,166 +693,166 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>3223</v>
+        <v>1927</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M2" s="2">
         <v>1365</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="O2" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P2" s="2">
-        <v>0.0195</v>
+        <v>0.0154</v>
       </c>
       <c r="Q2" s="2">
-        <v>62.8485</v>
+        <v>29.6758</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>436</v>
+        <v>3223</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M3" s="2">
         <v>1365</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="O3" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P3" s="2">
-        <v>0.084252676309553</v>
+        <v>0.0195</v>
       </c>
       <c r="Q3" s="2">
-        <v>36.7341668709651</v>
+        <v>62.8485</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>2807.04</v>
+        <v>436</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="2">
-        <v>17350000</v>
+        <v>32</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M4" s="2">
         <v>1365</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="O4" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P4" s="2">
-        <v>0.01315</v>
+        <v>0.084252676309553</v>
       </c>
       <c r="Q4" s="2">
-        <v>36.912576</v>
+        <v>36.7341668709651</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>19</v>
@@ -858,45 +861,98 @@
         <v>2807.04</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H5" s="2">
         <v>17350000</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M5" s="2">
         <v>1365</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="O5" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P5" s="2">
         <v>0.01315</v>
       </c>
       <c r="Q5" s="2">
+        <v>36.912576</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="1">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2807.04</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="2">
+        <v>17350000</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1365</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O6" s="2">
+        <v>18</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.01315</v>
+      </c>
+      <c r="Q6" s="2">
         <v>36.912576</v>
       </c>
     </row>
@@ -907,215 +963,484 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>23</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="2">
+        <v>91.86</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="1">
+      <c r="J2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1365</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" s="2">
+        <v>23</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
         <v>91.86</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>24</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="2">
+        <v>161.1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="K3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1365</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" s="2">
         <v>24</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>161.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1">
+        <v>25</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="2">
+        <v>802.83</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>24</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="L4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1365</v>
+      </c>
+      <c r="N4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="2">
-        <v>161.1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>25</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="2">
-        <v>802.83</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>26</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="O4" s="2">
+        <v>25</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.0454545454545455</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>36.4922727272727</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1">
+        <v>26</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="2">
         <v>73.89</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>27</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="2">
-        <v>244.42</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1365</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" s="2">
+        <v>26</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>73.89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="1">
         <v>27</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H5" s="2">
-        <v>14350000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>28</v>
-      </c>
       <c r="B6" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C6" s="2">
         <v>244.42</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H6" s="2">
         <v>14350000</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1365</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O6" s="2">
+        <v>27</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>122.21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
+        <v>28</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="2">
+        <v>244.42</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="2">
+        <v>14350000</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1365</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O7" s="2">
+        <v>28</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>122.21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="1">
         <v>29</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="2">
-        <v>5964.77</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="2">
-        <v>3000000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1">
-        <v>30</v>
-      </c>
       <c r="B8" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C8" s="2">
         <v>5964.77</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H8" s="2">
         <v>3000000</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1365</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O8" s="2">
+        <v>29</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0.0133333333333333</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>79.5302666666667</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="1">
+        <v>30</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="2">
+        <v>5964.77</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="2">
+        <v>3000000</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1365</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O9" s="2">
+        <v>30</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0.0133333333333333</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>79.5302666666667</v>
       </c>
     </row>
   </sheetData>
@@ -1125,7 +1450,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1148,30 +1473,53 @@
         <v>55</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="2">
+        <v>3000</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>41</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C3" s="2">
         <v>1600</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="D3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>30</v>
+      <c r="F3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1181,7 +1529,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1198,7 +1546,7 @@
         <v>60</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F1" s="1">
         <v>2208563</v>
@@ -1206,90 +1554,90 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>60</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F2" s="2">
-        <v>369</v>
+        <v>2208563</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>60</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F3" s="2">
-        <v>744348</v>
+        <v>369</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>60</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F4" s="2">
-        <v>2000000</v>
+        <v>744348</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>60</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F5" s="2">
-        <v>147345</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
+        <v>59</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>59</v>
@@ -1298,18 +1646,18 @@
         <v>60</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F6" s="2">
-        <v>5888</v>
+        <v>147345</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
+        <v>60</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>59</v>
@@ -1318,101 +1666,101 @@
         <v>60</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F7" s="2">
-        <v>240188</v>
+        <v>5888</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>60</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="F8" s="2">
-        <v>521452</v>
+        <v>240188</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>60</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="F9" s="2">
-        <v>172497</v>
+        <v>521452</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>60</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F10" s="2">
-        <v>2000000</v>
+        <v>172497</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>60</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="F11" s="2">
-        <v>21053</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>60</v>
@@ -1421,35 +1769,35 @@
         <v>71</v>
       </c>
       <c r="F12" s="2">
-        <v>500000</v>
+        <v>21053</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
+        <v>66</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="D13" s="2" t="s">
         <v>60</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="F13" s="2">
-        <v>8955</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>59</v>
@@ -1458,58 +1806,58 @@
         <v>60</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F14" s="2">
-        <v>6481204</v>
+        <v>8955</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>60</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F15" s="2">
-        <v>2219660</v>
+        <v>6481204</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>60</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F16" s="2">
-        <v>300179</v>
+        <v>2219660</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>59</v>
@@ -1518,9 +1866,29 @@
         <v>60</v>
       </c>
       <c r="E17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="2">
+        <v>300179</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1">
         <v>72</v>
       </c>
-      <c r="F17" s="2">
+      <c r="B18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18" s="2">
         <v>5511</v>
       </c>
     </row>
@@ -1531,7 +1899,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1580,16 +1948,16 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="D2" s="2">
-        <v>10000</v>
+        <v>15015</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
@@ -1598,42 +1966,42 @@
         <v>60</v>
       </c>
       <c r="G2" s="2">
-        <v>100000</v>
+        <v>150150</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L2" s="2">
         <v>1365</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="N2" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" s="2">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
@@ -1642,42 +2010,42 @@
         <v>60</v>
       </c>
       <c r="G3" s="2">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L3" s="2">
         <v>1365</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="N3" s="2">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D4" s="2">
-        <v>22797</v>
+        <v>20000</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
@@ -1686,42 +2054,42 @@
         <v>60</v>
       </c>
       <c r="G4" s="2">
-        <v>227970</v>
+        <v>200000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L4" s="2">
         <v>1365</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="N4" s="2">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D5" s="2">
-        <v>44000</v>
+        <v>22797</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
@@ -1730,42 +2098,42 @@
         <v>60</v>
       </c>
       <c r="G5" s="2">
-        <v>440000</v>
+        <v>227970</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L5" s="2">
         <v>1365</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="N5" s="2">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" s="2">
-        <v>98000</v>
+        <v>44000</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
@@ -1774,28 +2142,72 @@
         <v>60</v>
       </c>
       <c r="G6" s="2">
-        <v>980000</v>
+        <v>440000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L6" s="2">
         <v>1365</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="N6" s="2">
-        <v>86</v>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1">
+        <v>84</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="2">
+        <v>98000</v>
+      </c>
+      <c r="E7" s="2">
+        <v>10</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" s="2">
+        <v>980000</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1365</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N7" s="2">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1805,7 +2217,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1813,13 +2225,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E1" s="1">
         <v>2931.6</v>
@@ -1836,19 +2248,19 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E2" s="2" t="s">
         <v>84</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2931.6</v>
       </c>
       <c r="F2" s="2">
         <v>7.31</v>
@@ -1857,24 +2269,24 @@
         <v>60</v>
       </c>
       <c r="H2" s="2">
-        <v>157135.03</v>
+        <v>21430</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E3" s="2">
-        <v>13567.3</v>
+        <v>84</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="F3" s="2">
         <v>7.31</v>
@@ -1883,24 +2295,24 @@
         <v>60</v>
       </c>
       <c r="H3" s="2">
-        <v>99176.96</v>
+        <v>157135.03</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E4" s="2">
-        <v>20512.8</v>
+        <v>13567.3</v>
       </c>
       <c r="F4" s="2">
         <v>7.31</v>
@@ -1909,6 +2321,32 @@
         <v>60</v>
       </c>
       <c r="H4" s="2">
+        <v>99176.96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>97</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" s="2">
+        <v>20512.8</v>
+      </c>
+      <c r="F5" s="2">
+        <v>7.31</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="2">
         <v>149948.57</v>
       </c>
     </row>

--- a/legislator/property/output/normal/費鴻泰_2011-11-22_財產申報表_tmp1afe1.xlsx
+++ b/legislator/property/output/normal/費鴻泰_2011-11-22_財產申報表_tmp1afe1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="84">
   <si>
     <t>name</t>
   </si>
@@ -114,15 +114,9 @@
     <t>96年06月20日</t>
   </si>
   <si>
-    <t>rm貝賣</t>
-  </si>
-  <si>
     <t>買賣</t>
   </si>
   <si>
-    <t>貝賈</t>
-  </si>
-  <si>
     <t>(超過五年）</t>
   </si>
   <si>
@@ -177,19 +171,19 @@
     <t>96年06月20日.</t>
   </si>
   <si>
+    <t>capacity</t>
+  </si>
+  <si>
     <t>馬自達Tribute</t>
   </si>
   <si>
+    <t>馬自達ISAMU</t>
+  </si>
+  <si>
     <t>.王怡心</t>
   </si>
   <si>
     <t>92年09月15曰</t>
-  </si>
-  <si>
-    <t>貝賣</t>
-  </si>
-  <si>
-    <t>馬自達ISAMU</t>
   </si>
   <si>
     <t>93年05月20日</t>
@@ -714,16 +708,16 @@
         <v>31</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>25</v>
@@ -732,7 +726,7 @@
         <v>1365</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O2" s="2">
         <v>14</v>
@@ -764,19 +758,19 @@
         <v>28</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>25</v>
@@ -785,7 +779,7 @@
         <v>1365</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O3" s="2">
         <v>15</v>
@@ -817,19 +811,19 @@
         <v>29</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>25</v>
@@ -838,7 +832,7 @@
         <v>1365</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O4" s="2">
         <v>16</v>
@@ -870,19 +864,19 @@
         <v>30</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H5" s="2">
         <v>17350000</v>
       </c>
       <c r="I5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>25</v>
@@ -891,7 +885,7 @@
         <v>1365</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O5" s="2">
         <v>17</v>
@@ -923,19 +917,19 @@
         <v>30</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H6" s="2">
         <v>17350000</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>25</v>
@@ -944,7 +938,7 @@
         <v>1365</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O6" s="2">
         <v>18</v>
@@ -1024,13 +1018,13 @@
         <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2">
         <v>91.86</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>25</v>
@@ -1039,19 +1033,19 @@
         <v>27</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>25</v>
@@ -1060,7 +1054,7 @@
         <v>1365</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O2" s="2">
         <v>23</v>
@@ -1077,13 +1071,13 @@
         <v>24</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C3" s="2">
         <v>161.1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>26</v>
@@ -1092,19 +1086,19 @@
         <v>28</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>25</v>
@@ -1113,7 +1107,7 @@
         <v>1365</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O3" s="2">
         <v>24</v>
@@ -1130,13 +1124,13 @@
         <v>25</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C4" s="2">
         <v>802.83</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>26</v>
@@ -1145,19 +1139,19 @@
         <v>28</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>25</v>
@@ -1166,7 +1160,7 @@
         <v>1365</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O4" s="2">
         <v>25</v>
@@ -1183,34 +1177,34 @@
         <v>26</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C5" s="2">
         <v>73.89</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>25</v>
@@ -1219,7 +1213,7 @@
         <v>1365</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O5" s="2">
         <v>26</v>
@@ -1236,13 +1230,13 @@
         <v>27</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C6" s="2">
         <v>244.42</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>25</v>
@@ -1251,19 +1245,19 @@
         <v>30</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H6" s="2">
         <v>14350000</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>25</v>
@@ -1272,7 +1266,7 @@
         <v>1365</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O6" s="2">
         <v>27</v>
@@ -1289,34 +1283,34 @@
         <v>28</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C7" s="2">
         <v>244.42</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H7" s="2">
         <v>14350000</v>
       </c>
       <c r="I7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>25</v>
@@ -1325,7 +1319,7 @@
         <v>1365</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O7" s="2">
         <v>28</v>
@@ -1342,13 +1336,13 @@
         <v>29</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C8" s="2">
         <v>5964.77</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>25</v>
@@ -1357,19 +1351,19 @@
         <v>30</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H8" s="2">
         <v>3000000</v>
       </c>
       <c r="I8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>25</v>
@@ -1378,7 +1372,7 @@
         <v>1365</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O8" s="2">
         <v>29</v>
@@ -1395,13 +1389,13 @@
         <v>30</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C9" s="2">
         <v>5964.77</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>26</v>
@@ -1410,19 +1404,19 @@
         <v>30</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H9" s="2">
         <v>3000000</v>
       </c>
       <c r="I9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>25</v>
@@ -1431,7 +1425,7 @@
         <v>1365</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O9" s="2">
         <v>30</v>
@@ -1450,38 +1444,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="1">
-        <v>3000</v>
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C2" s="2">
         <v>3000</v>
@@ -1493,18 +1508,39 @@
         <v>54</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="J2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1365</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>41</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C3" s="2">
         <v>1600</v>
@@ -1513,13 +1549,34 @@
         <v>26</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>34</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1365</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" s="2">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1537,13 +1594,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>25</v>
@@ -1557,13 +1614,13 @@
         <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>25</v>
@@ -1577,13 +1634,13 @@
         <v>56</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>25</v>
@@ -1597,13 +1654,13 @@
         <v>57</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>25</v>
@@ -1617,13 +1674,13 @@
         <v>58</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>25</v>
@@ -1637,13 +1694,13 @@
         <v>59</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>26</v>
@@ -1657,13 +1714,13 @@
         <v>60</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>26</v>
@@ -1677,13 +1734,13 @@
         <v>61</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>26</v>
@@ -1697,16 +1754,16 @@
         <v>62</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F9" s="2">
         <v>521452</v>
@@ -1717,13 +1774,13 @@
         <v>63</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>26</v>
@@ -1737,13 +1794,13 @@
         <v>64</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>26</v>
@@ -1757,16 +1814,16 @@
         <v>65</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F12" s="2">
         <v>21053</v>
@@ -1777,16 +1834,16 @@
         <v>66</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="F13" s="2">
         <v>500000</v>
@@ -1797,13 +1854,13 @@
         <v>67</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>26</v>
@@ -1817,13 +1874,13 @@
         <v>69</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>26</v>
@@ -1837,13 +1894,13 @@
         <v>70</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>26</v>
@@ -1857,13 +1914,13 @@
         <v>71</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>26</v>
@@ -1877,16 +1934,16 @@
         <v>72</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F18" s="2">
         <v>5511</v>
@@ -1913,13 +1970,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1951,10 +2008,10 @@
         <v>79</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D2" s="2">
         <v>15015</v>
@@ -1963,19 +2020,19 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G2" s="2">
         <v>150150</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>25</v>
@@ -1984,7 +2041,7 @@
         <v>1365</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N2" s="2">
         <v>79</v>
@@ -1995,7 +2052,7 @@
         <v>80</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>26</v>
@@ -2007,19 +2064,19 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G3" s="2">
         <v>100000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>25</v>
@@ -2028,7 +2085,7 @@
         <v>1365</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N3" s="2">
         <v>80</v>
@@ -2039,7 +2096,7 @@
         <v>81</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>26</v>
@@ -2051,19 +2108,19 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G4" s="2">
         <v>200000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>25</v>
@@ -2072,7 +2129,7 @@
         <v>1365</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N4" s="2">
         <v>81</v>
@@ -2083,7 +2140,7 @@
         <v>82</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>26</v>
@@ -2095,19 +2152,19 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G5" s="2">
         <v>227970</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>25</v>
@@ -2116,7 +2173,7 @@
         <v>1365</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N5" s="2">
         <v>82</v>
@@ -2127,7 +2184,7 @@
         <v>83</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>26</v>
@@ -2139,19 +2196,19 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G6" s="2">
         <v>440000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>25</v>
@@ -2160,7 +2217,7 @@
         <v>1365</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N6" s="2">
         <v>83</v>
@@ -2171,7 +2228,7 @@
         <v>84</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>25</v>
@@ -2183,19 +2240,19 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G7" s="2">
         <v>980000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>25</v>
@@ -2204,7 +2261,7 @@
         <v>1365</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N7" s="2">
         <v>84</v>
@@ -2225,13 +2282,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E1" s="1">
         <v>2931.6</v>
@@ -2240,7 +2297,7 @@
         <v>7.31</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H1" s="1">
         <v>21430</v>
@@ -2251,13 +2308,13 @@
         <v>94</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E2" s="2">
         <v>2931.6</v>
@@ -2266,7 +2323,7 @@
         <v>7.31</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H2" s="2">
         <v>21430</v>
@@ -2277,22 +2334,22 @@
         <v>95</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="F3" s="2">
         <v>7.31</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H3" s="2">
         <v>157135.03</v>
@@ -2303,13 +2360,13 @@
         <v>96</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E4" s="2">
         <v>13567.3</v>
@@ -2318,7 +2375,7 @@
         <v>7.31</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H4" s="2">
         <v>99176.96</v>
@@ -2329,13 +2386,13 @@
         <v>97</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E5" s="2">
         <v>20512.8</v>
@@ -2344,7 +2401,7 @@
         <v>7.31</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H5" s="2">
         <v>149948.57</v>

--- a/legislator/property/output/normal/費鴻泰_2011-11-22_財產申報表_tmp1afe1.xlsx
+++ b/legislator/property/output/normal/費鴻泰_2011-11-22_財產申報表_tmp1afe1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="86">
   <si>
     <t>name</t>
   </si>
@@ -171,6 +171,9 @@
     <t>96年06月20日.</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -187,6 +190,9 @@
   </si>
   <si>
     <t>93年05月20日</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>台北富邦商業銀行</t>
@@ -1039,7 +1045,7 @@
         <v>32</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>34</v>
@@ -1092,7 +1098,7 @@
         <v>32</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>34</v>
@@ -1145,7 +1151,7 @@
         <v>32</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>34</v>
@@ -1198,7 +1204,7 @@
         <v>32</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>34</v>
@@ -1251,7 +1257,7 @@
         <v>14350000</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>34</v>
@@ -1304,7 +1310,7 @@
         <v>14350000</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>34</v>
@@ -1357,7 +1363,7 @@
         <v>3000000</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>34</v>
@@ -1410,7 +1416,7 @@
         <v>3000000</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>34</v>
@@ -1455,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1496,16 +1502,16 @@
         <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C2" s="2">
         <v>3000</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>31</v>
@@ -1514,7 +1520,7 @@
         <v>32</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>34</v>
@@ -1540,7 +1546,7 @@
         <v>41</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C3" s="2">
         <v>1600</v>
@@ -1549,7 +1555,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>31</v>
@@ -1558,7 +1564,7 @@
         <v>32</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>34</v>
@@ -1594,13 +1600,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>25</v>
@@ -1614,13 +1620,13 @@
         <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>25</v>
@@ -1634,13 +1640,13 @@
         <v>56</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>25</v>
@@ -1654,13 +1660,13 @@
         <v>57</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>25</v>
@@ -1674,13 +1680,13 @@
         <v>58</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>25</v>
@@ -1694,13 +1700,13 @@
         <v>59</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>26</v>
@@ -1714,13 +1720,13 @@
         <v>60</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>26</v>
@@ -1734,13 +1740,13 @@
         <v>61</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>26</v>
@@ -1754,16 +1760,16 @@
         <v>62</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F9" s="2">
         <v>521452</v>
@@ -1774,13 +1780,13 @@
         <v>63</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>26</v>
@@ -1794,13 +1800,13 @@
         <v>64</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>26</v>
@@ -1814,16 +1820,16 @@
         <v>65</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F12" s="2">
         <v>21053</v>
@@ -1834,16 +1840,16 @@
         <v>66</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F13" s="2">
         <v>500000</v>
@@ -1854,13 +1860,13 @@
         <v>67</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>26</v>
@@ -1874,13 +1880,13 @@
         <v>69</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="D15" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>26</v>
@@ -1894,13 +1900,13 @@
         <v>70</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>26</v>
@@ -1914,13 +1920,13 @@
         <v>71</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>26</v>
@@ -1934,16 +1940,16 @@
         <v>72</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="D18" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F18" s="2">
         <v>5511</v>
@@ -1970,13 +1976,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -2008,10 +2014,10 @@
         <v>79</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D2" s="2">
         <v>15015</v>
@@ -2020,13 +2026,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G2" s="2">
         <v>150150</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>34</v>
@@ -2052,7 +2058,7 @@
         <v>80</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>26</v>
@@ -2064,13 +2070,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G3" s="2">
         <v>100000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>34</v>
@@ -2096,7 +2102,7 @@
         <v>81</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>26</v>
@@ -2108,13 +2114,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G4" s="2">
         <v>200000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>34</v>
@@ -2140,7 +2146,7 @@
         <v>82</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>26</v>
@@ -2152,13 +2158,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G5" s="2">
         <v>227970</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>34</v>
@@ -2184,7 +2190,7 @@
         <v>83</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>26</v>
@@ -2196,13 +2202,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G6" s="2">
         <v>440000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>34</v>
@@ -2228,7 +2234,7 @@
         <v>84</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>25</v>
@@ -2240,13 +2246,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G7" s="2">
         <v>980000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>34</v>
@@ -2282,13 +2288,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E1" s="1">
         <v>2931.6</v>
@@ -2297,7 +2303,7 @@
         <v>7.31</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H1" s="1">
         <v>21430</v>
@@ -2308,13 +2314,13 @@
         <v>94</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E2" s="2">
         <v>2931.6</v>
@@ -2323,7 +2329,7 @@
         <v>7.31</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H2" s="2">
         <v>21430</v>
@@ -2334,22 +2340,22 @@
         <v>95</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F3" s="2">
         <v>7.31</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H3" s="2">
         <v>157135.03</v>
@@ -2360,13 +2366,13 @@
         <v>96</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E4" s="2">
         <v>13567.3</v>
@@ -2375,7 +2381,7 @@
         <v>7.31</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H4" s="2">
         <v>99176.96</v>
@@ -2386,13 +2392,13 @@
         <v>97</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E5" s="2">
         <v>20512.8</v>
@@ -2401,7 +2407,7 @@
         <v>7.31</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H5" s="2">
         <v>149948.57</v>

--- a/legislator/property/output/normal/費鴻泰_2011-11-22_財產申報表_tmp1afe1.xlsx
+++ b/legislator/property/output/normal/費鴻泰_2011-11-22_財產申報表_tmp1afe1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="89">
   <si>
     <t>name</t>
   </si>
@@ -195,42 +195,51 @@
     <t>car</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>台北富邦商業銀行</t>
   </si>
   <si>
+    <t>中華郵政股份有限公司</t>
+  </si>
+  <si>
+    <t>兆豐國際商業銀行</t>
+  </si>
+  <si>
+    <t>彰化商業銀行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行</t>
+  </si>
+  <si>
+    <t>玉山商寒銀行</t>
+  </si>
+  <si>
+    <t>玉山商業銀行</t>
+  </si>
+  <si>
+    <t>元大商業銀行</t>
+  </si>
+  <si>
     <t>活期儲蓄存款</t>
   </si>
   <si>
+    <t>支票存款</t>
+  </si>
+  <si>
+    <t>定期存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>中華郵政股份有限公司</t>
-  </si>
-  <si>
-    <t>兆豐國際商業銀行</t>
-  </si>
-  <si>
-    <t>彰化商業銀行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行</t>
-  </si>
-  <si>
-    <t>玉山商寒銀行</t>
-  </si>
-  <si>
-    <t>玉山商業銀行</t>
-  </si>
-  <si>
-    <t>元大商業銀行</t>
-  </si>
-  <si>
-    <t>支票存款</t>
-  </si>
-  <si>
-    <t>定期存款</t>
-  </si>
-  <si>
     <t>EE怡心</t>
   </si>
   <si>
@@ -240,13 +249,13 @@
     <t>費〇德</t>
   </si>
   <si>
+    <t>deposit</t>
+  </si>
+  <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>互盛</t>
@@ -1592,13 +1601,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>58</v>
       </c>
@@ -1609,24 +1618,45 @@
         <v>60</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="1">
-        <v>2208563</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>25</v>
@@ -1634,19 +1664,40 @@
       <c r="F2" s="2">
         <v>2208563</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1365</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>56</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>25</v>
@@ -1654,19 +1705,40 @@
       <c r="F3" s="2">
         <v>369</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1365</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>57</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>25</v>
@@ -1674,19 +1746,40 @@
       <c r="F4" s="2">
         <v>744348</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1365</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>58</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>25</v>
@@ -1694,19 +1787,40 @@
       <c r="F5" s="2">
         <v>2000000</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1365</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>59</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>26</v>
@@ -1714,19 +1828,40 @@
       <c r="F6" s="2">
         <v>147345</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1365</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M6" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>60</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>26</v>
@@ -1734,19 +1869,40 @@
       <c r="F7" s="2">
         <v>5888</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1365</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M7" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>61</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>26</v>
@@ -1754,39 +1910,81 @@
       <c r="F8" s="2">
         <v>240188</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1365</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M8" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>62</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F9" s="2">
         <v>521452</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1365</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M9" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>63</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>26</v>
@@ -1794,19 +1992,40 @@
       <c r="F10" s="2">
         <v>172497</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1365</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M10" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>64</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>26</v>
@@ -1814,59 +2033,122 @@
       <c r="F11" s="2">
         <v>2000000</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1365</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M11" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>65</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F12" s="2">
         <v>21053</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1365</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M12" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>66</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F13" s="2">
         <v>500000</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1365</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M13" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>67</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>26</v>
@@ -1874,19 +2156,40 @@
       <c r="F14" s="2">
         <v>8955</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1365</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M14" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>69</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>26</v>
@@ -1894,19 +2197,40 @@
       <c r="F15" s="2">
         <v>6481204</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1365</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M15" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>70</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>26</v>
@@ -1914,19 +2238,40 @@
       <c r="F16" s="2">
         <v>2219660</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1365</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M16" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>71</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>26</v>
@@ -1934,25 +2279,67 @@
       <c r="F17" s="2">
         <v>300179</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1365</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M17" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>72</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F18" s="2">
         <v>5511</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K18" s="2">
+        <v>1365</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M18" s="2">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1976,13 +2363,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -2014,10 +2401,10 @@
         <v>79</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D2" s="2">
         <v>15015</v>
@@ -2026,13 +2413,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="G2" s="2">
         <v>150150</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>34</v>
@@ -2058,7 +2445,7 @@
         <v>80</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>26</v>
@@ -2070,13 +2457,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="G3" s="2">
         <v>100000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>34</v>
@@ -2102,7 +2489,7 @@
         <v>81</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>26</v>
@@ -2114,13 +2501,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="G4" s="2">
         <v>200000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>34</v>
@@ -2146,7 +2533,7 @@
         <v>82</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>26</v>
@@ -2158,13 +2545,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="G5" s="2">
         <v>227970</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>34</v>
@@ -2190,7 +2577,7 @@
         <v>83</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>26</v>
@@ -2202,13 +2589,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="G6" s="2">
         <v>440000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>34</v>
@@ -2234,7 +2621,7 @@
         <v>84</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>25</v>
@@ -2246,13 +2633,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="G7" s="2">
         <v>980000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>34</v>
@@ -2288,13 +2675,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E1" s="1">
         <v>2931.6</v>
@@ -2303,7 +2690,7 @@
         <v>7.31</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="H1" s="1">
         <v>21430</v>
@@ -2314,13 +2701,13 @@
         <v>94</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E2" s="2">
         <v>2931.6</v>
@@ -2329,7 +2716,7 @@
         <v>7.31</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="H2" s="2">
         <v>21430</v>
@@ -2340,22 +2727,22 @@
         <v>95</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F3" s="2">
         <v>7.31</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="H3" s="2">
         <v>157135.03</v>
@@ -2366,13 +2753,13 @@
         <v>96</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E4" s="2">
         <v>13567.3</v>
@@ -2381,7 +2768,7 @@
         <v>7.31</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="H4" s="2">
         <v>99176.96</v>
@@ -2392,13 +2779,13 @@
         <v>97</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E5" s="2">
         <v>20512.8</v>
@@ -2407,7 +2794,7 @@
         <v>7.31</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="H5" s="2">
         <v>149948.57</v>

--- a/legislator/property/output/normal/費鴻泰_2011-11-22_財產申報表_tmp1afe1.xlsx
+++ b/legislator/property/output/normal/費鴻泰_2011-11-22_財產申報表_tmp1afe1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="90">
   <si>
     <t>name</t>
   </si>
@@ -279,13 +279,16 @@
     <t>stock</t>
   </si>
   <si>
+    <t>dealer</t>
+  </si>
+  <si>
     <t>友邦巨人基金</t>
   </si>
   <si>
     <t>友邦證券投資信託股份有限公司</t>
   </si>
   <si>
-    <t>21495.90</t>
+    <t>fund</t>
   </si>
 </sst>
 </file>
@@ -2667,47 +2670,68 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E1" s="1">
-        <v>2931.6</v>
-      </c>
-      <c r="F1" s="1">
-        <v>7.31</v>
+      <c r="E1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H1" s="1">
-        <v>21430</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>94</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E2" s="2">
         <v>2931.6</v>
@@ -2721,22 +2745,43 @@
       <c r="H2" s="2">
         <v>21430</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1365</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>95</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>75</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E3" s="2" t="s">
         <v>88</v>
+      </c>
+      <c r="E3" s="2">
+        <v>21495.9</v>
       </c>
       <c r="F3" s="2">
         <v>7.31</v>
@@ -2747,19 +2792,40 @@
       <c r="H3" s="2">
         <v>157135.03</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1365</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>96</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E4" s="2">
         <v>13567.3</v>
@@ -2773,19 +2839,40 @@
       <c r="H4" s="2">
         <v>99176.96</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1365</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O4" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>97</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E5" s="2">
         <v>20512.8</v>
@@ -2798,6 +2885,27 @@
       </c>
       <c r="H5" s="2">
         <v>149948.57</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1365</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O5" s="2">
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/費鴻泰_2011-11-22_財產申報表_tmp1afe1.xlsx
+++ b/legislator/property/output/normal/費鴻泰_2011-11-22_財產申報表_tmp1afe1.xlsx
@@ -13,13 +13,14 @@
     <sheet name="存款" sheetId="4" r:id="rId4"/>
     <sheet name="股票" sheetId="5" r:id="rId5"/>
     <sheet name="基金受益憑證" sheetId="6" r:id="rId6"/>
+    <sheet name="債務" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="96">
   <si>
     <t>name</t>
   </si>
@@ -289,6 +290,24 @@
   </si>
   <si>
     <t>fund</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
+  </si>
+  <si>
+    <t>房屋貸款</t>
+  </si>
+  <si>
+    <t>國泰世華臺北市内湖區内湖路</t>
+  </si>
+  <si>
+    <t>買房子</t>
+  </si>
+  <si>
+    <t>debt</t>
   </si>
 </sst>
 </file>
@@ -2911,4 +2930,102 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="B1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1">
+        <v>119</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" s="2">
+        <v>12313577</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1365</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" s="2">
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>